--- a/doc/log/log_201605020129_chenjinxin.xlsx
+++ b/doc/log/log_201605020129_chenjinxin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE6AD13-96BC-4902-BE1A-EA06E777F4E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630FCB44-A04C-4C79-9503-B7FF45FB3AA4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,78 @@
   </si>
   <si>
     <t>大致的框架页面，选项没弄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目连接到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目传到git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.00-21.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.00-12.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.00-15.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立接口，报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.00-20.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.00-21.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.00-22.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.30-21.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联到远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把之前的文件覆盖了。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习下网页编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立server的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库建立数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.00-23.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,7 +584,219 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43227</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43229</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43230</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43231</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43232</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43234</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201605020129_chenjinxin.xlsx
+++ b/doc/log/log_201605020129_chenjinxin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE6AD13-96BC-4902-BE1A-EA06E777F4E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7F43DC-EBAE-4C51-BAAD-C73DFBEA55FC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,98 @@
   </si>
   <si>
     <t>大致的框架页面，选项没弄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目连接到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目传到git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.00-21.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.00-12.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.00-15.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立接口，报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.00-20.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.00-21.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.00-22.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.30-21.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联到远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把之前的文件覆盖了。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习下网页编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立server的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库建立数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.00-23.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.00-21.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.00-11.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.00-10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据访问实体属性建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据访问测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,7 +604,266 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43227</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43229</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43230</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43231</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43232</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43234</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43241</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201605020129_chenjinxin.xlsx
+++ b/doc/log/log_201605020129_chenjinxin.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7F43DC-EBAE-4C51-BAAD-C73DFBEA55FC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{43578014-FDBB-4512-9C62-12D239F0E43B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="79">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,144 @@
   </si>
   <si>
     <t>数据访问测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.00-21.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.00-21.01</t>
+  </si>
+  <si>
+    <t>20.00-22.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立连接到heidisql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功连接到heidisql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.00-17..21</t>
+  </si>
+  <si>
+    <t>16.00-18.01</t>
+  </si>
+  <si>
+    <t>19..00-21.01</t>
+  </si>
+  <si>
+    <t>18.00-20.01</t>
+  </si>
+  <si>
+    <t>19.00-21.00</t>
+  </si>
+  <si>
+    <t>建立page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p@ entity报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立store，index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立，app等js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置表格的实体类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把表格数据输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑不出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了相关文件，完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新service，和dao文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.00-16.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.00-21.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.00-17.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.00-18.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19..00-21.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习web编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习JIRA，下载安装配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改编辑页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +338,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +351,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -233,18 +379,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -865,11 +1014,435 @@
       <c r="A25" s="1">
         <v>43241</v>
       </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43242</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43245</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43247</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43250</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43253</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43257</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43260</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43261</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43262</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43263</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43268</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43269</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43273</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C36" r:id="rId1" xr:uid="{61309AE8-9A93-453C-8A83-B17625653EB7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/log/log_201605020129_chenjinxin.xlsx
+++ b/doc/log/log_201605020129_chenjinxin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{43578014-FDBB-4512-9C62-12D239F0E43B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B1F82BDD-EF84-4409-9B25-030C199B08CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="97">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,76 @@
   </si>
   <si>
     <t>修改编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置iview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iview页面布置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页面，显示excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新设置考勤页面模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.00-16.30</t>
+  </si>
+  <si>
+    <t>页面查询无法显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现页面查询，修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写项目计划书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写立项申请书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写立项申请书，验收说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页面，部分无法显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改主页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤模块选项改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改计划书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.00-16.31</t>
+  </si>
+  <si>
+    <t>完善文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1409,6 +1479,12 @@
       <c r="B53" t="s">
         <v>75</v>
       </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -1420,20 +1496,234 @@
       <c r="C54" t="s">
         <v>77</v>
       </c>
+      <c r="D54" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43271</v>
       </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43272</v>
       </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43273</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43274</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43275</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43283</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43284</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43286</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43287</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
